--- a/student_timetables/Charlotte LAW_CampB_timetable.xlsx
+++ b/student_timetables/Charlotte LAW_CampB_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +447,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.9" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
     <col width="80" customWidth="1" min="3" max="3"/>
     <col width="80" customWidth="1" min="4" max="4"/>
@@ -1053,7 +1053,7 @@
       <c r="D30" s="2" t="n"/>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="n"/>
     </row>
     <row r="31" ht="60" customHeight="1">
       <c r="A31" s="2" t="inlineStr">
@@ -1066,10 +1066,14 @@
       <c r="D31" s="2" t="n"/>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Rehearsal for Faculty Concert</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C20:C23"/>
@@ -1087,11 +1091,9 @@
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="E28:E31"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F8:F15"/>
     <mergeCell ref="C8:C11"/>
@@ -1106,6 +1108,7 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="D20:D23"/>
+    <mergeCell ref="G28:G30"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="G22:G27"/>
